--- a/teaching/traditional_assets/database/data/germany/germany_software_internet.xlsx
+++ b/teaching/traditional_assets/database/data/germany/germany_software_internet.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.09140000000000001</v>
+        <v>-0.012</v>
       </c>
       <c r="G2">
-        <v>0.01810936172992748</v>
+        <v>-0.008859504132231404</v>
       </c>
       <c r="H2">
-        <v>0.00112366890964918</v>
+        <v>-0.008859504132231404</v>
       </c>
       <c r="I2">
-        <v>-0.04377395531427742</v>
+        <v>-0.02987549812133724</v>
       </c>
       <c r="J2">
-        <v>-0.04377395531427742</v>
+        <v>-0.02987549812133724</v>
       </c>
       <c r="K2">
-        <v>-5.97</v>
+        <v>-2.307</v>
       </c>
       <c r="L2">
-        <v>-0.03900176389886979</v>
+        <v>-0.02542148760330578</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,67 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>6</v>
+        <v>6.49</v>
       </c>
       <c r="V2">
-        <v>0.6263048016701461</v>
-      </c>
-      <c r="W2">
-        <v>-1.579129326732259</v>
+        <v>0.2438932732055618</v>
       </c>
       <c r="X2">
-        <v>0.11302431607157</v>
-      </c>
-      <c r="Y2">
-        <v>-1.69215364280383</v>
+        <v>0.06016853439930246</v>
       </c>
       <c r="Z2">
-        <v>411.0401625189281</v>
+        <v>-5.26973104491134</v>
       </c>
       <c r="AA2">
-        <v>3.937608773191165</v>
+        <v>0.4193476633270933</v>
       </c>
       <c r="AB2">
-        <v>0.08051151116461087</v>
+        <v>0.05244901121731119</v>
       </c>
       <c r="AC2">
-        <v>3.857097262026554</v>
+        <v>0.3668986521097821</v>
       </c>
       <c r="AD2">
-        <v>8.529999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE2">
-        <v>0.9123966997822291</v>
+        <v>0.5610072725567721</v>
       </c>
       <c r="AF2">
-        <v>9.442396699782229</v>
+        <v>9.761007272556771</v>
       </c>
       <c r="AG2">
-        <v>3.442396699782229</v>
+        <v>3.271007272556771</v>
       </c>
       <c r="AH2">
-        <v>0.4963831239987929</v>
+        <v>0.2683733007285119</v>
       </c>
       <c r="AI2">
-        <v>0.7784079064744638</v>
+        <v>0.8569046651451977</v>
       </c>
       <c r="AJ2">
-        <v>0.2643443276336218</v>
+        <v>0.1094677713746591</v>
       </c>
       <c r="AK2">
-        <v>0.5615291910724984</v>
+        <v>0.6674153068233141</v>
       </c>
       <c r="AL2">
-        <v>0.386</v>
+        <v>1.06</v>
       </c>
       <c r="AM2">
-        <v>0.379</v>
+        <v>0.9760000000000001</v>
       </c>
       <c r="AN2">
-        <v>-2.111908888338698</v>
+        <v>-6.764705882352941</v>
       </c>
       <c r="AO2">
-        <v>-17.83937823834197</v>
+        <v>-2.70377358490566</v>
       </c>
       <c r="AP2">
-        <v>-0.8522893537465287</v>
+        <v>-2.405152406291744</v>
       </c>
       <c r="AQ2">
-        <v>-18.1688654353562</v>
+        <v>-2.936475409836065</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nexway AG (XTRA:NWAY)</t>
+          <t>DCI Database for Commerce and Industry AG (DB:DCIK)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -718,26 +712,23 @@
           <t>Software (Internet)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.09140000000000001</v>
-      </c>
       <c r="G3">
-        <v>0.01647019423978566</v>
+        <v>0.01885714285714286</v>
       </c>
       <c r="H3">
-        <v>-0.000944407233757535</v>
+        <v>0.01885714285714286</v>
       </c>
       <c r="I3">
-        <v>-0.04667254650527181</v>
+        <v>0.04676812170085377</v>
       </c>
       <c r="J3">
-        <v>-0.04667254650527181</v>
+        <v>0.04676812170085377</v>
       </c>
       <c r="K3">
-        <v>-7.3</v>
+        <v>0.113</v>
       </c>
       <c r="L3">
-        <v>-0.04889484259879437</v>
+        <v>0.06457142857142857</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +737,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +746,67 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.6606397774687065</v>
-      </c>
-      <c r="W3">
-        <v>-3.705583756345177</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.1396849225746099</v>
-      </c>
-      <c r="Y3">
-        <v>-3.845268678919787</v>
+        <v>0.05454743392931438</v>
       </c>
       <c r="Z3">
-        <v>-164.2565377468044</v>
+        <v>14.48928158123833</v>
       </c>
       <c r="AA3">
-        <v>7.666270896782664</v>
+        <v>0.6776364843492929</v>
       </c>
       <c r="AB3">
-        <v>0.07950947982495023</v>
+        <v>0.05290927020913389</v>
       </c>
       <c r="AC3">
-        <v>7.586761416957714</v>
+        <v>0.624727214140159</v>
       </c>
       <c r="AD3">
-        <v>8.529999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.7110559661854031</v>
+        <v>0.1207789351175296</v>
       </c>
       <c r="AF3">
-        <v>9.241055966185403</v>
+        <v>0.1207789351175296</v>
       </c>
       <c r="AG3">
-        <v>4.491055966185403</v>
+        <v>0.1207789351175296</v>
       </c>
       <c r="AH3">
-        <v>0.562414003409349</v>
+        <v>0.03985079007844098</v>
       </c>
       <c r="AI3">
-        <v>1.116196822914249</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.3844734567821794</v>
+        <v>0.03985079007844098</v>
       </c>
       <c r="AK3">
-        <v>1.272594146768331</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>0.386</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.379</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-1.905719392314567</v>
-      </c>
-      <c r="AO3">
-        <v>-18.3160621761658</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-1.003363710050358</v>
-      </c>
-      <c r="AQ3">
-        <v>-18.65435356200528</v>
+        <v>1.050251609717648</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +817,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DCI Database for Commerce and Industry AG (DB:DCIK)</t>
+          <t>asknet Solutions AG (XTRA:ASKN)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -846,23 +825,26 @@
           <t>Software (Internet)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>-0.012</v>
+      </c>
       <c r="G4">
-        <v>0.0830238726790451</v>
+        <v>-0.009404494382022472</v>
       </c>
       <c r="H4">
-        <v>0.0830238726790451</v>
+        <v>-0.009404494382022472</v>
       </c>
       <c r="I4">
-        <v>0.07101640670573867</v>
+        <v>-0.03138253558975111</v>
       </c>
       <c r="J4">
-        <v>0.07101640670573867</v>
+        <v>-0.03138253558975111</v>
       </c>
       <c r="K4">
-        <v>1.33</v>
+        <v>-2.42</v>
       </c>
       <c r="L4">
-        <v>0.3527851458885942</v>
+        <v>-0.02719101123595506</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -871,7 +853,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -880,73 +862,79 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.25</v>
+        <v>6.49</v>
       </c>
       <c r="V4">
-        <v>0.5230125523012552</v>
+        <v>0.2738396624472574</v>
       </c>
       <c r="W4">
-        <v>0.5473251028806584</v>
+        <v>2.515592515592516</v>
       </c>
       <c r="X4">
-        <v>0.08636370956853012</v>
+        <v>0.06578963486929054</v>
       </c>
       <c r="Y4">
-        <v>0.4609613933121283</v>
+        <v>2.449802880723225</v>
       </c>
       <c r="Z4">
-        <v>2.942230666012863</v>
+        <v>-5.132116933135647</v>
       </c>
       <c r="AA4">
-        <v>0.2089466495996658</v>
+        <v>0.1610588423048938</v>
       </c>
       <c r="AB4">
-        <v>0.08151354250427152</v>
+        <v>0.05198875222548849</v>
       </c>
       <c r="AC4">
-        <v>0.1274331070953943</v>
+        <v>0.1090700900794053</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE4">
-        <v>0.2013407335968261</v>
+        <v>0.4402283374392424</v>
       </c>
       <c r="AF4">
-        <v>0.2013407335968261</v>
+        <v>9.640228337439241</v>
       </c>
       <c r="AG4">
-        <v>-1.048659266403174</v>
+        <v>3.150228337439241</v>
       </c>
       <c r="AH4">
-        <v>0.0776975142583282</v>
+        <v>0.2891470400223323</v>
       </c>
       <c r="AI4">
-        <v>0.05227808898871196</v>
+        <v>0.8553711645233303</v>
       </c>
       <c r="AJ4">
-        <v>-0.7817993147730463</v>
+        <v>0.117325942180039</v>
       </c>
       <c r="AK4">
-        <v>-0.4031226101446588</v>
+        <v>0.6590121046658647</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.9760000000000001</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>-6.237288135593221</v>
+      </c>
+      <c r="AO4">
+        <v>-2.726415094339623</v>
       </c>
       <c r="AP4">
-        <v>-2.399677955156005</v>
+        <v>-2.135748025382536</v>
+      </c>
+      <c r="AQ4">
+        <v>-2.961065573770492</v>
       </c>
     </row>
   </sheetData>
